--- a/개인적인/월급과월세내역및생활비예상내가가져간금액계좌내역으로작성.xlsx
+++ b/개인적인/월급과월세내역및생활비예상내가가져간금액계좌내역으로작성.xlsx
@@ -21,97 +21,97 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <x:si>
+    <x:t>21년</x:t>
+  </x:si>
+  <x:si>
     <x:t>8월</x:t>
   </x:si>
   <x:si>
     <x:t>9월</x:t>
   </x:si>
   <x:si>
-    <x:t>21년</x:t>
+    <x:t>급여</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10월</x:t>
   </x:si>
   <x:si>
     <x:t>생활비</x:t>
   </x:si>
   <x:si>
+    <x:t>3월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20년</x:t>
+  </x:si>
+  <x:si>
     <x:t>23년</x:t>
   </x:si>
   <x:si>
-    <x:t>3월</x:t>
-  </x:si>
-  <x:si>
     <x:t>합계</x:t>
   </x:si>
   <x:si>
-    <x:t>급여</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5월</x:t>
-  </x:si>
-  <x:si>
     <x:t>25년</x:t>
   </x:si>
   <x:si>
+    <x:t>4월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6월</x:t>
+  </x:si>
+  <x:si>
     <x:t>고잉컴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카카오뱅크
-(12월월세:차키+수원지역화폐)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그리스카카오</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인포렉스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진스아이티오</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가져간돈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사슴월세</x:t>
-  </x:si>
-  <x:si>
-    <x:t>싸에스피아이</x:t>
   </x:si>
   <x:si>
     <x:t>베트남
 환율 1300원
 으로계산</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카카오뱅크
+(12월월세:차키+수원지역화폐)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진스아이티오</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인포렉스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사슴월세</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그리스카카오</x:t>
+  </x:si>
+  <x:si>
+    <x:t>싸에스피아이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가져간돈</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -804,14 +804,15 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:H63"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="E59" activeCellId="0" sqref="E59:E59"/>
+    <x:sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="D9" activeCellId="0" sqref="D9:D9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="2" max="3" width="11.89453125" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="5" width="12.2734375" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="12.2734375" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="12.2734375" hidden="1" bestFit="1" customWidth="1"/>
     <x:col min="6" max="6" width="15.4375" bestFit="1" customWidth="1"/>
     <x:col min="7" max="7" width="14.296875" bestFit="1" customWidth="1"/>
     <x:col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
@@ -821,17 +822,17 @@
       <x:c r="A1" s="1"/>
       <x:c r="B1" s="1"/>
       <x:c r="C1" s="12" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D1" s="12"/>
       <x:c r="E1" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1" s="1"/>
     </x:row>
@@ -840,7 +841,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C2" s="3"/>
       <x:c r="D2" s="3"/>
@@ -848,13 +849,13 @@
       <x:c r="F2" s="3"/>
       <x:c r="G2" s="3"/>
       <x:c r="H2" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="14"/>
       <x:c r="B3" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C3" s="3"/>
       <x:c r="D3" s="3"/>
@@ -866,7 +867,7 @@
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="14"/>
       <x:c r="B4" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C4" s="3">
         <x:v>4213000</x:v>
@@ -886,7 +887,7 @@
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="14"/>
       <x:c r="B5" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C5" s="3">
         <x:v>4013050</x:v>
@@ -908,7 +909,7 @@
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="14"/>
       <x:c r="B6" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="3">
         <x:v>4013050</x:v>
@@ -930,7 +931,7 @@
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="14"/>
       <x:c r="B7" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="3">
         <x:v>4013000</x:v>
@@ -952,7 +953,7 @@
     <x:row r="8" spans="1:8">
       <x:c r="A8" s="14"/>
       <x:c r="B8" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="3">
         <x:v>4013000</x:v>
@@ -974,7 +975,7 @@
     <x:row r="9" spans="1:8">
       <x:c r="A9" s="14"/>
       <x:c r="B9" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="3">
         <x:v>4013000</x:v>
@@ -996,7 +997,7 @@
     <x:row r="10" spans="1:8">
       <x:c r="A10" s="14"/>
       <x:c r="B10" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C10" s="3">
         <x:v>3287760</x:v>
@@ -1012,13 +1013,13 @@
         <x:v>-100000</x:v>
       </x:c>
       <x:c r="H10" s="10" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:8">
       <x:c r="A11" s="15"/>
       <x:c r="B11" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C11" s="3">
         <x:v>6285500</x:v>
@@ -1037,10 +1038,10 @@
     </x:row>
     <x:row r="12" spans="1:8">
       <x:c r="A12" s="10" t="s">
-        <x:v>2</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C12" s="3">
         <x:v>6285500</x:v>
@@ -1060,7 +1061,7 @@
     <x:row r="13" spans="1:8">
       <x:c r="A13" s="10"/>
       <x:c r="B13" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C13" s="3">
         <x:v>6285500</x:v>
@@ -1080,7 +1081,7 @@
     <x:row r="14" spans="1:8">
       <x:c r="A14" s="10"/>
       <x:c r="B14" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C14" s="3">
         <x:v>6285500</x:v>
@@ -1100,7 +1101,7 @@
     <x:row r="15" spans="1:8">
       <x:c r="A15" s="10"/>
       <x:c r="B15" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C15" s="3">
         <x:v>6285500</x:v>
@@ -1120,7 +1121,7 @@
     <x:row r="16" spans="1:8">
       <x:c r="A16" s="10"/>
       <x:c r="B16" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C16" s="3">
         <x:v>6285500</x:v>
@@ -1140,7 +1141,7 @@
     <x:row r="17" spans="1:8">
       <x:c r="A17" s="10"/>
       <x:c r="B17" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C17" s="3">
         <x:v>6285500</x:v>
@@ -1162,7 +1163,7 @@
     <x:row r="18" spans="1:8">
       <x:c r="A18" s="10"/>
       <x:c r="B18" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C18" s="3">
         <x:v>5845520</x:v>
@@ -1182,7 +1183,7 @@
     <x:row r="19" spans="1:8">
       <x:c r="A19" s="10"/>
       <x:c r="B19" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C19" s="3">
         <x:v>6285500</x:v>
@@ -1202,7 +1203,7 @@
     <x:row r="20" spans="1:8">
       <x:c r="A20" s="10"/>
       <x:c r="B20" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C20" s="3">
         <x:v>6282670</x:v>
@@ -1222,7 +1223,7 @@
     <x:row r="21" spans="1:8">
       <x:c r="A21" s="10"/>
       <x:c r="B21" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C21" s="3">
         <x:v>6274085</x:v>
@@ -1242,7 +1243,7 @@
     <x:row r="22" spans="1:8">
       <x:c r="A22" s="10"/>
       <x:c r="B22" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C22" s="3">
         <x:v>6274085</x:v>
@@ -1262,7 +1263,7 @@
     <x:row r="23" spans="1:8">
       <x:c r="A23" s="10"/>
       <x:c r="B23" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C23" s="3">
         <x:v>6274085</x:v>
@@ -1281,10 +1282,10 @@
     </x:row>
     <x:row r="24" spans="1:8">
       <x:c r="A24" s="10" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C24" s="3">
         <x:v>6774085</x:v>
@@ -1304,7 +1305,7 @@
     <x:row r="25" spans="1:8">
       <x:c r="A25" s="10"/>
       <x:c r="B25" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C25" s="3">
         <x:v>6274085</x:v>
@@ -1324,7 +1325,7 @@
     <x:row r="26" spans="1:8">
       <x:c r="A26" s="10"/>
       <x:c r="B26" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C26" s="3">
         <x:v>5945477</x:v>
@@ -1340,13 +1341,13 @@
         <x:v>-100000</x:v>
       </x:c>
       <x:c r="H26" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:8">
       <x:c r="A27" s="10"/>
       <x:c r="B27" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C27" s="3">
         <x:v>6755220</x:v>
@@ -1366,7 +1367,7 @@
     <x:row r="28" spans="1:8">
       <x:c r="A28" s="10"/>
       <x:c r="B28" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C28" s="3">
         <x:v>6755220</x:v>
@@ -1386,7 +1387,7 @@
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="10"/>
       <x:c r="B29" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C29" s="3">
         <x:v>6755220</x:v>
@@ -1406,7 +1407,7 @@
     <x:row r="30" spans="1:8">
       <x:c r="A30" s="10"/>
       <x:c r="B30" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C30" s="3">
         <x:v>6755220</x:v>
@@ -1426,7 +1427,7 @@
     <x:row r="31" spans="1:8">
       <x:c r="A31" s="10"/>
       <x:c r="B31" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C31" s="3">
         <x:v>6708012</x:v>
@@ -1446,7 +1447,7 @@
     <x:row r="32" spans="1:8">
       <x:c r="A32" s="10"/>
       <x:c r="B32" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C32" s="3">
         <x:v>6708012</x:v>
@@ -1466,7 +1467,7 @@
     <x:row r="33" spans="1:8">
       <x:c r="A33" s="10"/>
       <x:c r="B33" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C33" s="3">
         <x:v>6708012</x:v>
@@ -1486,7 +1487,7 @@
     <x:row r="34" spans="1:8">
       <x:c r="A34" s="10"/>
       <x:c r="B34" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C34" s="3">
         <x:v>6708012</x:v>
@@ -1506,7 +1507,7 @@
     <x:row r="35" spans="1:8">
       <x:c r="A35" s="10"/>
       <x:c r="B35" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C35" s="3">
         <x:v>6708012</x:v>
@@ -1525,10 +1526,10 @@
     </x:row>
     <x:row r="36" spans="1:8">
       <x:c r="A36" s="10" t="s">
-        <x:v>4</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C36" s="3">
         <x:v>6708012</x:v>
@@ -1544,13 +1545,13 @@
         <x:v>-100000</x:v>
       </x:c>
       <x:c r="H36" s="10" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:8">
       <x:c r="A37" s="10"/>
       <x:c r="B37" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C37" s="3">
         <x:v>7874100</x:v>
@@ -1570,7 +1571,7 @@
     <x:row r="38" spans="1:8">
       <x:c r="A38" s="10"/>
       <x:c r="B38" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C38" s="3">
         <x:v>7874100</x:v>
@@ -1590,7 +1591,7 @@
     <x:row r="39" spans="1:8">
       <x:c r="A39" s="10"/>
       <x:c r="B39" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C39" s="3">
         <x:v>7874100</x:v>
@@ -1610,7 +1611,7 @@
     <x:row r="40" spans="1:8">
       <x:c r="A40" s="10"/>
       <x:c r="B40" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C40" s="3">
         <x:v>7846540</x:v>
@@ -1630,7 +1631,7 @@
     <x:row r="41" spans="1:8">
       <x:c r="A41" s="10"/>
       <x:c r="B41" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C41" s="3">
         <x:v>7832760</x:v>
@@ -1650,7 +1651,7 @@
     <x:row r="42" spans="1:8" s="9" customFormat="1">
       <x:c r="A42" s="10"/>
       <x:c r="B42" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C42" s="3">
         <x:v>7597857</x:v>
@@ -1670,7 +1671,7 @@
     <x:row r="43" spans="1:8">
       <x:c r="A43" s="10"/>
       <x:c r="B43" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C43" s="3">
         <x:v>0</x:v>
@@ -1686,13 +1687,13 @@
         <x:v>-100000</x:v>
       </x:c>
       <x:c r="H43" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:8">
       <x:c r="A44" s="10"/>
       <x:c r="B44" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C44" s="3">
         <x:f t="shared" ref="C44:C57" si="0">5800*1300</x:f>
@@ -1713,7 +1714,7 @@
     <x:row r="45" spans="1:8">
       <x:c r="A45" s="10"/>
       <x:c r="B45" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C45" s="3">
         <x:v>7449414</x:v>
@@ -1733,7 +1734,7 @@
     <x:row r="46" spans="1:8">
       <x:c r="A46" s="10"/>
       <x:c r="B46" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C46" s="3">
         <x:v>7409146</x:v>
@@ -1753,7 +1754,7 @@
     <x:row r="47" spans="1:8">
       <x:c r="A47" s="10"/>
       <x:c r="B47" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C47" s="3">
         <x:v>6041264</x:v>
@@ -1772,10 +1773,10 @@
     </x:row>
     <x:row r="48" spans="1:8">
       <x:c r="A48" s="10" t="s">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C48" s="3">
         <x:f t="shared" si="0"/>
@@ -1796,7 +1797,7 @@
     <x:row r="49" spans="1:8">
       <x:c r="A49" s="10"/>
       <x:c r="B49" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C49" s="3">
         <x:f t="shared" si="0"/>
@@ -1817,7 +1818,7 @@
     <x:row r="50" spans="1:8">
       <x:c r="A50" s="10"/>
       <x:c r="B50" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C50" s="3">
         <x:f t="shared" si="0"/>
@@ -1838,7 +1839,7 @@
     <x:row r="51" spans="1:8">
       <x:c r="A51" s="10"/>
       <x:c r="B51" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C51" s="3">
         <x:f t="shared" si="0"/>
@@ -1859,7 +1860,7 @@
     <x:row r="52" spans="1:8">
       <x:c r="A52" s="10"/>
       <x:c r="B52" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C52" s="3">
         <x:f t="shared" si="0"/>
@@ -1880,7 +1881,7 @@
     <x:row r="53" spans="1:8">
       <x:c r="A53" s="10"/>
       <x:c r="B53" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C53" s="3">
         <x:f t="shared" si="0"/>
@@ -1901,7 +1902,7 @@
     <x:row r="54" spans="1:8">
       <x:c r="A54" s="10"/>
       <x:c r="B54" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C54" s="3">
         <x:f t="shared" si="0"/>
@@ -1922,7 +1923,7 @@
     <x:row r="55" spans="1:8">
       <x:c r="A55" s="10"/>
       <x:c r="B55" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C55" s="3">
         <x:f t="shared" si="0"/>
@@ -1943,7 +1944,7 @@
     <x:row r="56" spans="1:8">
       <x:c r="A56" s="10"/>
       <x:c r="B56" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C56" s="3">
         <x:f t="shared" si="0"/>
@@ -1964,7 +1965,7 @@
     <x:row r="57" spans="1:8">
       <x:c r="A57" s="10"/>
       <x:c r="B57" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C57" s="3">
         <x:f t="shared" si="0"/>
@@ -1985,7 +1986,7 @@
     <x:row r="58" spans="1:8">
       <x:c r="A58" s="10"/>
       <x:c r="B58" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C58" s="3">
         <x:v>6700000</x:v>
@@ -2005,7 +2006,7 @@
     <x:row r="59" spans="1:8">
       <x:c r="A59" s="10"/>
       <x:c r="B59" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C59" s="3">
         <x:v>0</x:v>
@@ -2019,7 +2020,7 @@
         <x:v>-100000</x:v>
       </x:c>
       <x:c r="H59" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:8" s="9" customFormat="1">
@@ -2027,7 +2028,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B60" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C60" s="3">
         <x:v>2816000</x:v>
@@ -2045,7 +2046,7 @@
     <x:row r="61" spans="1:8" s="9" customFormat="1">
       <x:c r="A61" s="16"/>
       <x:c r="B61" s="2" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C61" s="3">
         <x:v>5738000</x:v>
@@ -2065,7 +2066,7 @@
     <x:row r="62" spans="1:8" s="9" customFormat="1">
       <x:c r="A62" s="16"/>
       <x:c r="B62" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C62" s="3">
         <x:v>1693374</x:v>
@@ -2082,11 +2083,11 @@
     </x:row>
     <x:row r="63" spans="1:8">
       <x:c r="A63" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B63" s="5">
-        <x:f>C63+D63+E63+F63+G63</x:f>
-        <x:v>297895731</x:v>
+        <x:f>C63+D63+F63+G63</x:f>
+        <x:v>266535715</x:v>
       </x:c>
       <x:c r="C63" s="5">
         <x:f>SUM(C2:C62)</x:f>
